--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F1289-12D5-424F-8ACB-734B0EE7287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6A96F-611C-4565-833B-DD04F5D22A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Дата</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Неплохие коэффициенты,резче работают, но не так плавно как прошлые. Перелеты на замечены. Может увеличение диффера дало чуть лучше, но перебор.</t>
+  </si>
+  <si>
+    <t>throttle</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
   </cellXfs>
@@ -227,10 +230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +498,7 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,8 +510,8 @@
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="42.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -537,7 +536,9 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -564,7 +565,9 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>1550</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -589,7 +592,9 @@
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1550</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6A96F-611C-4565-833B-DD04F5D22A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C91468-3243-4EB8-9778-33996C253483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,49 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Возможно стоит проверить, с какого момента старт. Тортул задавать как горизонтальный можно, но опасненько, пока так настраивается - будем настраивать так. Можно попытаться ограничить снизу, чтобы число было то, на котором парит хотя бы.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">PWM отрыва 1540. Старта 1230. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Тортул задавать как горизонтальный можно, но опасненько, пока так настраивается - будем настраивать так. Можно попытаться ограничить снизу, чтобы число было то, на котором парит хотя бы.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
 Также может масштабировать по шагу, т.к. 1200 и 1204 нет разницы.</t>
         </r>
       </text>
@@ -79,7 +121,114 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Без фильтра резче, но добавляет колебательности. Фильтр поднастроить</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Без фильтра резче, но добавляет колебательности. Фильтр поднастроить</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{C7FDE5B8-BB5B-40F5-AB91-56A8E7121C4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Илья:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Serial.print() показал 2500 мкс = 2.5 мс. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Serial.write()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1400</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> мкс = 1.4 мс. На скорости 250_000 бауд показал от 240 до </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>300</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> мкс.</t>
         </r>
       </text>
     </comment>
@@ -88,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -131,12 +280,15 @@
   <si>
     <t>throttle</t>
   </si>
+  <si>
+    <t>Для рассмотрения. Не так плохи. Если интегратор понизить до 0.01, то не поднимается до нуля.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +331,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +384,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -215,6 +421,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -230,6 +439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +711,7 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,13 +760,13 @@
       <c r="A2" s="2">
         <v>45388</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1.6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>0.1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>0.5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -574,13 +787,13 @@
       <c r="A3" s="2">
         <v>45388</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1.8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -604,18 +817,32 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C91468-3243-4EB8-9778-33996C253483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7A57-FBFB-48A8-B417-8B299F32820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,42 +96,6 @@
           </rPr>
           <t xml:space="preserve">
 Также может масштабировать по шагу, т.к. 1200 и 1204 нет разницы.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{EC9790AA-6954-466D-9DF7-88B1BD782828}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Илья:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Без фильтра резче, но добавляет колебательности. Фильтр поднастроить</t>
         </r>
       </text>
     </comment>
@@ -237,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Дата</t>
   </si>
@@ -282,6 +246,9 @@
   </si>
   <si>
     <t>Для рассмотрения. Не так плохи. Если интегратор понизить до 0.01, то не поднимается до нуля.</t>
+  </si>
+  <si>
+    <t>плечо длинное плоское 70</t>
   </si>
 </sst>
 </file>
@@ -439,10 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,7 +674,7 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +744,9 @@
       <c r="H2" s="1">
         <v>1550</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -808,7 +773,9 @@
       <c r="H3" s="1">
         <v>1550</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -843,8 +810,12 @@
       <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1">
+        <v>1550</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F7A57-FBFB-48A8-B417-8B299F32820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85951B54-E16F-489A-B116-C3FD10935007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,106 @@
         </r>
       </text>
     </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{755741AF-EC76-46D1-A682-FC7B5C6C901A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Илья:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Заменили плечо. Перевал через горизонт после </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1530</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> (взлет и начинает переваливаться). Отрыв от земли в </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">1460.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Добавил оффсет +1 к ошибке (</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <u/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>к фильтру ни в коем случае</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>). Пока особой разницы не видно.
+Изменение throttle с 1470 до 1510 немного увеличила шанс перевала, но стало ровнее явно.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -255,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +438,15 @@
       <color indexed="81"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -674,7 +783,7 @@
   <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,14 +949,28 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1580</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1510</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85951B54-E16F-489A-B116-C3FD10935007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1E1E0-2573-44D5-A4D8-E756076337EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,6 +293,176 @@
           </rPr>
           <t>). Пока особой разницы не видно.
 Изменение throttle с 1470 до 1510 немного увеличила шанс перевала, но стало ровнее явно.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{164D89C1-EEC7-418A-8C16-151F939BF1E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Илья:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+getAngle() - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1500</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> нс
+getAngle + filt - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>2000</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> нс.
+Вычисление ПИД почти не добавило, +- </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>70</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> нс. Короче можно фильтр либо убрать, либо спросить, либо оставить только 1 угол для еще оптимизации. Как раз лишние 200 нс для write.
+Write занял </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>500-700 (6)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> нс.
+Увеличение до 500_000 уменьшило до 400.
+Write без запятых через union дал </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>500</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> вместо </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>700</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (тоже, если просто запятые убрать).
+Убрал предыдущий print() - стало </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>250</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> мс для вывода 6 чисел.</t>
         </r>
       </text>
     </comment>
@@ -782,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1E1E0-2573-44D5-A4D8-E756076337EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D4DEE-6F78-48CF-91AF-4C2B9F94C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Дата</t>
   </si>
@@ -519,6 +519,24 @@
   </si>
   <si>
     <t>плечо длинное плоское 70</t>
+  </si>
+  <si>
+    <t>1510-1520</t>
+  </si>
+  <si>
+    <t>Медленно и перелет</t>
+  </si>
+  <si>
+    <t>1510-1521</t>
+  </si>
+  <si>
+    <t>1510-1522</t>
+  </si>
+  <si>
+    <t>1510-1523</t>
+  </si>
+  <si>
+    <t>Эти три весьма неплохи. Плавнее подъем и держатся хорошо без сильных качений. Последний вроде лучшее пока.</t>
   </si>
 </sst>
 </file>
@@ -620,7 +638,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +663,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -658,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -670,6 +706,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -952,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,47 +1219,87 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.4</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">

--- a/Настройка_ПИД.xlsx
+++ b/Настройка_ПИД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITMO_2024_WORK\ITMO_Qt_arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D4DEE-6F78-48CF-91AF-4C2B9F94C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC63C3-2C65-4DB2-BF34-B35A11141EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Дата</t>
   </si>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>Эти три весьма неплохи. Плавнее подъем и держатся хорошо без сильных качений. Последний вроде лучшее пока.</t>
+  </si>
+  <si>
+    <t>Неплохие. Опять же, медленный подъем.</t>
+  </si>
+  <si>
+    <t>Без фильтра как то плохо.</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,7 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -994,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,13 +1331,25 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.12</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -1342,7 +1360,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
